--- a/Assets/_Excel/cardLibrary.xlsx
+++ b/Assets/_Excel/cardLibrary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game project\Card-game_test\Assets\_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CF9775-1E9D-4B8B-9EE3-58CEFB078F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2421826F-A32B-487A-AB18-8503671D31CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="2800" windowWidth="23280" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1230" yWindow="2300" windowWidth="23280" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -414,39 +414,7 @@
         <v>1002</v>
       </c>
       <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1001</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1001</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1001</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1001</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/_Excel/cardLibrary.xlsx
+++ b/Assets/_Excel/cardLibrary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game project\Card-game_test\Assets\_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2421826F-A32B-487A-AB18-8503671D31CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A74553-045D-4657-97A4-8ABF037B8057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1230" yWindow="2300" windowWidth="23280" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,7 +368,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
